--- a/Nitip file/Notasi Audit LNO/Folder 1/Evaluasi hasil edit SPI.xlsx
+++ b/Nitip file/Notasi Audit LNO/Folder 1/Evaluasi hasil edit SPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\Nitip file\Notasi Audit LNO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\Nitip file\Notasi Audit LNO\Folder 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9932" uniqueCount="2300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9938" uniqueCount="2301">
   <si>
     <t>900. Kantor Pusat</t>
   </si>
@@ -6926,6 +6926,9 @@
   </si>
   <si>
     <t>disamakan dgn bpk Latif</t>
+  </si>
+  <si>
+    <t>Masa persiapan pensiun</t>
   </si>
 </sst>
 </file>
@@ -6994,7 +6997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7004,12 +7007,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -63973,8 +63977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63999,10 +64003,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>2136</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2134</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -64019,7 +64023,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -64034,7 +64038,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>1335</v>
       </c>
@@ -64049,8 +64053,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
         <v>2135</v>
       </c>
       <c r="C5" t="s">
@@ -64067,7 +64071,7 @@
       <c r="A6" t="s">
         <v>2137</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>2138</v>
       </c>
       <c r="C6" t="s">
@@ -64081,7 +64085,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>2139</v>
       </c>
       <c r="C7" t="s">
@@ -64109,7 +64113,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>1578</v>
       </c>
       <c r="C9" t="s">
@@ -64123,7 +64127,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>2141</v>
       </c>
       <c r="C10" t="s">
@@ -64137,7 +64141,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>1413</v>
       </c>
       <c r="C11" t="s">
@@ -64151,7 +64155,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>864</v>
       </c>
       <c r="C12" t="s">
@@ -64165,7 +64169,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>1344</v>
       </c>
       <c r="C13" t="s">
@@ -64179,7 +64183,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>2142</v>
       </c>
       <c r="C14" t="s">
@@ -64193,7 +64197,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>2143</v>
       </c>
       <c r="C15" t="s">
@@ -64207,7 +64211,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>2077</v>
       </c>
       <c r="C16" t="s">
@@ -64220,8 +64224,8 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>2144</v>
       </c>
       <c r="C17" t="s">
@@ -64234,7 +64238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2148</v>
       </c>
@@ -64251,7 +64255,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2284</v>
       </c>
@@ -64265,7 +64269,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1187</v>
       </c>
@@ -64279,7 +64283,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2285</v>
       </c>
@@ -64293,8 +64297,8 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>1481</v>
       </c>
       <c r="C22" t="s">
@@ -64306,8 +64310,11 @@
       <c r="E22" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2196</v>
       </c>
@@ -64321,8 +64328,8 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
         <v>2197</v>
       </c>
       <c r="C24" t="s">
@@ -64334,8 +64341,11 @@
       <c r="E24" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2286</v>
       </c>
@@ -64349,7 +64359,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>2287</v>
       </c>
@@ -64363,7 +64373,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>2003</v>
       </c>
@@ -64377,8 +64387,8 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>2288</v>
       </c>
       <c r="C28" t="s">
@@ -64390,8 +64400,11 @@
       <c r="E28" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>2289</v>
       </c>
@@ -64405,7 +64418,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>2290</v>
       </c>
@@ -64419,7 +64432,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>2291</v>
       </c>
@@ -64433,7 +64446,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2292</v>
       </c>
@@ -64447,7 +64460,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>2293</v>
       </c>
@@ -64461,7 +64474,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>2294</v>
       </c>
@@ -64475,7 +64488,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>2295</v>
       </c>
@@ -64489,8 +64502,8 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
         <v>1810</v>
       </c>
       <c r="C36" t="s">
@@ -64502,8 +64515,11 @@
       <c r="E36" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>2248</v>
       </c>
@@ -64517,7 +64533,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>2296</v>
       </c>
@@ -64531,8 +64547,8 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
         <v>2297</v>
       </c>
       <c r="C39" t="s">
@@ -64544,8 +64560,11 @@
       <c r="E39" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>2263</v>
       </c>
@@ -64559,8 +64578,8 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="C41" t="s">
@@ -64572,8 +64591,11 @@
       <c r="E41" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>1732</v>
       </c>
@@ -64587,7 +64609,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>2298</v>
       </c>
@@ -64601,7 +64623,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>1871</v>
       </c>
